--- a/www.eia.gov/forecasts/steo/xls/Fig22.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig22.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Electric Power Sector Coal Stocks</t>
@@ -56,7 +56,7 @@
     <t>Range</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Note:  Colored band around stock levels represents the range between the minimum and maximum from Jan. 2009 - Dec. 2016.</t>
@@ -1784,8 +1784,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="643727616"/>
-        <c:axId val="643728176"/>
+        <c:axId val="592547200"/>
+        <c:axId val="592546640"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2464,82 +2464,82 @@
                   <c:v>163.47406100000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>171.82740000000001</c:v>
+                  <c:v>172.13907900000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>170.12739999999999</c:v>
+                  <c:v>170.00460000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>165.73609999999999</c:v>
+                  <c:v>168.32679999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>165.77359999999999</c:v>
+                  <c:v>168.2518</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>172.8955</c:v>
+                  <c:v>175.32650000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>173.23699999999999</c:v>
+                  <c:v>175.64930000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>174.2824</c:v>
+                  <c:v>176.6497</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>167.7757</c:v>
+                  <c:v>170.07380000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>158.4196</c:v>
+                  <c:v>160.655</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>152.6514</c:v>
+                  <c:v>154.85669999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>150.37610000000001</c:v>
+                  <c:v>152.56030000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>154.05879999999999</c:v>
+                  <c:v>156.22819999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>158.1002</c:v>
+                  <c:v>160.25399999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>154.1755</c:v>
+                  <c:v>156.31299999999999</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>148.4315</c:v>
+                  <c:v>150.53620000000001</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>147.5136</c:v>
+                  <c:v>149.57079999999999</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>154.126</c:v>
+                  <c:v>156.16820000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>154.76840000000001</c:v>
+                  <c:v>156.9675</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>156.10579999999999</c:v>
+                  <c:v>158.2662</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>150.88310000000001</c:v>
+                  <c:v>152.9802</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>142.803</c:v>
+                  <c:v>144.84289999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>137.8039</c:v>
+                  <c:v>139.81909999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>135.3897</c:v>
+                  <c:v>137.38900000000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>139.726</c:v>
+                  <c:v>141.71530000000001</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>144.5147</c:v>
+                  <c:v>146.49299999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>146.8314</c:v>
+                  <c:v>148.7978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,8 +2556,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="643727616"/>
-        <c:axId val="643728176"/>
+        <c:axId val="592547200"/>
+        <c:axId val="592546640"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2643,10 +2643,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2676,11 +2676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="643728736"/>
-        <c:axId val="643729296"/>
+        <c:axId val="592523120"/>
+        <c:axId val="592537120"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="643727616"/>
+        <c:axId val="592547200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2697,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643728176"/>
+        <c:crossAx val="592546640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2708,7 +2708,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="643728176"/>
+        <c:axId val="592546640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -2736,14 +2736,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643727616"/>
+        <c:crossAx val="592547200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="643728736"/>
+        <c:axId val="592523120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2760,12 +2760,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643729296"/>
+        <c:crossAx val="592537120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="643729296"/>
+        <c:axId val="592537120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2782,7 +2782,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643728736"/>
+        <c:crossAx val="592523120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2893,7 +2893,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -4371,7 +4371,7 @@
             <v>42675</v>
           </cell>
           <cell r="B122">
-            <v>171.82740000000001</v>
+            <v>172.13907900000001</v>
           </cell>
           <cell r="C122">
             <v>142.59539599999999</v>
@@ -4385,7 +4385,7 @@
             <v>42705</v>
           </cell>
           <cell r="B123">
-            <v>170.12739999999999</v>
+            <v>170.00460000000001</v>
           </cell>
           <cell r="C123">
             <v>147.88424699999999</v>
@@ -4399,7 +4399,7 @@
             <v>42736</v>
           </cell>
           <cell r="B124">
-            <v>165.73609999999999</v>
+            <v>168.32679999999999</v>
           </cell>
           <cell r="C124">
             <v>133.70472699999999</v>
@@ -4413,7 +4413,7 @@
             <v>42767</v>
           </cell>
           <cell r="B125">
-            <v>165.77359999999999</v>
+            <v>168.2518</v>
           </cell>
           <cell r="C125">
             <v>119.90428300000001</v>
@@ -4427,7 +4427,7 @@
             <v>42795</v>
           </cell>
           <cell r="B126">
-            <v>172.8955</v>
+            <v>175.32650000000001</v>
           </cell>
           <cell r="C126">
             <v>118.260238</v>
@@ -4441,7 +4441,7 @@
             <v>42826</v>
           </cell>
           <cell r="B127">
-            <v>173.23699999999999</v>
+            <v>175.64930000000001</v>
           </cell>
           <cell r="C127">
             <v>128.92501799999999</v>
@@ -4455,7 +4455,7 @@
             <v>42856</v>
           </cell>
           <cell r="B128">
-            <v>174.2824</v>
+            <v>176.6497</v>
           </cell>
           <cell r="C128">
             <v>136.92056299999999</v>
@@ -4469,7 +4469,7 @@
             <v>42887</v>
           </cell>
           <cell r="B129">
-            <v>167.7757</v>
+            <v>170.07380000000001</v>
           </cell>
           <cell r="C129">
             <v>133.479434</v>
@@ -4483,7 +4483,7 @@
             <v>42917</v>
           </cell>
           <cell r="B130">
-            <v>158.4196</v>
+            <v>160.655</v>
           </cell>
           <cell r="C130">
             <v>125.869913</v>
@@ -4497,7 +4497,7 @@
             <v>42948</v>
           </cell>
           <cell r="B131">
-            <v>152.6514</v>
+            <v>154.85669999999999</v>
           </cell>
           <cell r="C131">
             <v>121.36913199999999</v>
@@ -4511,7 +4511,7 @@
             <v>42979</v>
           </cell>
           <cell r="B132">
-            <v>150.37610000000001</v>
+            <v>152.56030000000001</v>
           </cell>
           <cell r="C132">
             <v>124.54611800000001</v>
@@ -4525,7 +4525,7 @@
             <v>43009</v>
           </cell>
           <cell r="B133">
-            <v>154.05879999999999</v>
+            <v>156.22819999999999</v>
           </cell>
           <cell r="C133">
             <v>136.96425400000001</v>
@@ -4539,7 +4539,7 @@
             <v>43040</v>
           </cell>
           <cell r="B134">
-            <v>158.1002</v>
+            <v>160.25399999999999</v>
           </cell>
           <cell r="C134">
             <v>142.59539599999999</v>
@@ -4553,7 +4553,7 @@
             <v>43070</v>
           </cell>
           <cell r="B135">
-            <v>154.1755</v>
+            <v>156.31299999999999</v>
           </cell>
           <cell r="C135">
             <v>147.88424699999999</v>
@@ -4567,7 +4567,7 @@
             <v>43101</v>
           </cell>
           <cell r="B136">
-            <v>148.4315</v>
+            <v>150.53620000000001</v>
           </cell>
           <cell r="C136">
             <v>133.70472699999999</v>
@@ -4581,7 +4581,7 @@
             <v>43132</v>
           </cell>
           <cell r="B137">
-            <v>147.5136</v>
+            <v>149.57079999999999</v>
           </cell>
           <cell r="C137">
             <v>119.90428300000001</v>
@@ -4595,7 +4595,7 @@
             <v>43160</v>
           </cell>
           <cell r="B138">
-            <v>154.126</v>
+            <v>156.16820000000001</v>
           </cell>
           <cell r="C138">
             <v>118.260238</v>
@@ -4609,7 +4609,7 @@
             <v>43191</v>
           </cell>
           <cell r="B139">
-            <v>154.76840000000001</v>
+            <v>156.9675</v>
           </cell>
           <cell r="C139">
             <v>128.92501799999999</v>
@@ -4623,7 +4623,7 @@
             <v>43221</v>
           </cell>
           <cell r="B140">
-            <v>156.10579999999999</v>
+            <v>158.2662</v>
           </cell>
           <cell r="C140">
             <v>136.92056299999999</v>
@@ -4637,7 +4637,7 @@
             <v>43252</v>
           </cell>
           <cell r="B141">
-            <v>150.88310000000001</v>
+            <v>152.9802</v>
           </cell>
           <cell r="C141">
             <v>133.479434</v>
@@ -4651,7 +4651,7 @@
             <v>43282</v>
           </cell>
           <cell r="B142">
-            <v>142.803</v>
+            <v>144.84289999999999</v>
           </cell>
           <cell r="C142">
             <v>125.869913</v>
@@ -4665,7 +4665,7 @@
             <v>43313</v>
           </cell>
           <cell r="B143">
-            <v>137.8039</v>
+            <v>139.81909999999999</v>
           </cell>
           <cell r="C143">
             <v>121.36913199999999</v>
@@ -4679,7 +4679,7 @@
             <v>43344</v>
           </cell>
           <cell r="B144">
-            <v>135.3897</v>
+            <v>137.38900000000001</v>
           </cell>
           <cell r="C144">
             <v>124.54611800000001</v>
@@ -4693,7 +4693,7 @@
             <v>43374</v>
           </cell>
           <cell r="B145">
-            <v>139.726</v>
+            <v>141.71530000000001</v>
           </cell>
           <cell r="C145">
             <v>136.96425400000001</v>
@@ -4707,7 +4707,7 @@
             <v>43405</v>
           </cell>
           <cell r="B146">
-            <v>144.5147</v>
+            <v>146.49299999999999</v>
           </cell>
           <cell r="C146">
             <v>142.59539599999999</v>
@@ -4721,7 +4721,7 @@
             <v>43435</v>
           </cell>
           <cell r="B147">
-            <v>146.8314</v>
+            <v>148.7978</v>
           </cell>
           <cell r="C147">
             <v>147.88424699999999</v>
@@ -4737,7 +4737,7 @@
         </row>
         <row r="152">
           <cell r="A152">
-            <v>96</v>
+            <v>97</v>
           </cell>
           <cell r="B152">
             <v>0</v>
@@ -4745,7 +4745,7 @@
         </row>
         <row r="153">
           <cell r="A153">
-            <v>96</v>
+            <v>97</v>
           </cell>
           <cell r="B153">
             <v>1</v>
@@ -6974,7 +6974,7 @@
         <v>42675</v>
       </c>
       <c r="B122" s="15">
-        <v>171.82740000000001</v>
+        <v>172.13907900000001</v>
       </c>
       <c r="C122" s="15">
         <f>MIN($B$62,$B$50,$B$38,$B$74,$B$86,$B$98,$B$110,$B$122)</f>
@@ -6994,7 +6994,7 @@
         <v>42705</v>
       </c>
       <c r="B123" s="15">
-        <v>170.12739999999999</v>
+        <v>170.00460000000001</v>
       </c>
       <c r="C123" s="15">
         <f>MIN($B$63,$B$51,$B$39,$B$75,$B$87,$B$99,$B$111,$B$123)</f>
@@ -7014,7 +7014,7 @@
         <v>42736</v>
       </c>
       <c r="B124" s="15">
-        <v>165.73609999999999</v>
+        <v>168.32679999999999</v>
       </c>
       <c r="C124" s="15">
         <f>MIN($B$52,$B$40,$B$28,$B$64,$B$76,$B$88,$B$100,$B$112)</f>
@@ -7034,7 +7034,7 @@
         <v>42767</v>
       </c>
       <c r="B125" s="15">
-        <v>165.77359999999999</v>
+        <v>168.2518</v>
       </c>
       <c r="C125" s="15">
         <f>MIN($B$53,$B$41,$B$29,$B$65,$B$77,$B$89,$B$101,$B$113)</f>
@@ -7054,7 +7054,7 @@
         <v>42795</v>
       </c>
       <c r="B126" s="15">
-        <v>172.8955</v>
+        <v>175.32650000000001</v>
       </c>
       <c r="C126" s="15">
         <f>MIN($B$54,$B$42,$B$30,$B$66,$B$78,$B$90,$B$102,$B$114)</f>
@@ -7074,7 +7074,7 @@
         <v>42826</v>
       </c>
       <c r="B127" s="15">
-        <v>173.23699999999999</v>
+        <v>175.64930000000001</v>
       </c>
       <c r="C127" s="15">
         <f>MIN($B$55,$B$43,$B$31,$B$67,$B$79,$B$91,$B$103,$B$115)</f>
@@ -7094,7 +7094,7 @@
         <v>42856</v>
       </c>
       <c r="B128" s="15">
-        <v>174.2824</v>
+        <v>176.6497</v>
       </c>
       <c r="C128" s="15">
         <f>MIN($B$56,$B$44,$B$32,$B$68,$B$80,$B$92,$B$104,$B$116)</f>
@@ -7114,7 +7114,7 @@
         <v>42887</v>
       </c>
       <c r="B129" s="15">
-        <v>167.7757</v>
+        <v>170.07380000000001</v>
       </c>
       <c r="C129" s="15">
         <f>MIN($B$57,$B$45,$B$33,$B$69,$B$81,$B$93,$B$105,$B$117)</f>
@@ -7134,7 +7134,7 @@
         <v>42917</v>
       </c>
       <c r="B130" s="15">
-        <v>158.4196</v>
+        <v>160.655</v>
       </c>
       <c r="C130" s="15">
         <f>MIN($B$58,$B$46,$B$34,$B$70,$B$82,$B$94,$B$106,$B$118)</f>
@@ -7154,7 +7154,7 @@
         <v>42948</v>
       </c>
       <c r="B131" s="15">
-        <v>152.6514</v>
+        <v>154.85669999999999</v>
       </c>
       <c r="C131" s="15">
         <f>MIN($B$59,$B$47,$B$35,$B$71,$B$83,$B$95,$B$107,$B$119)</f>
@@ -7174,7 +7174,7 @@
         <v>42979</v>
       </c>
       <c r="B132" s="15">
-        <v>150.37610000000001</v>
+        <v>152.56030000000001</v>
       </c>
       <c r="C132" s="15">
         <f>MIN($B$60,$B$48,$B$36,$B$72,$B$84,$B$96,$B$108,$B$120)</f>
@@ -7194,7 +7194,7 @@
         <v>43009</v>
       </c>
       <c r="B133" s="15">
-        <v>154.05879999999999</v>
+        <v>156.22819999999999</v>
       </c>
       <c r="C133" s="15">
         <f>MIN($B$61,$B$49,$B$37,$B$73,$B$85,$B$97,$B$109,$B$121)</f>
@@ -7214,7 +7214,7 @@
         <v>43040</v>
       </c>
       <c r="B134" s="15">
-        <v>158.1002</v>
+        <v>160.25399999999999</v>
       </c>
       <c r="C134" s="15">
         <f>MIN($B$62,$B$50,$B$38,$B$74,$B$86,$B$98,$B$110,$B$122)</f>
@@ -7234,7 +7234,7 @@
         <v>43070</v>
       </c>
       <c r="B135" s="15">
-        <v>154.1755</v>
+        <v>156.31299999999999</v>
       </c>
       <c r="C135" s="15">
         <f>MIN($B$63,$B$51,$B$39,$B$75,$B$87,$B$99,$B$111,$B$123)</f>
@@ -7254,7 +7254,7 @@
         <v>43101</v>
       </c>
       <c r="B136" s="15">
-        <v>148.4315</v>
+        <v>150.53620000000001</v>
       </c>
       <c r="C136" s="15">
         <f>MIN($B$52,$B$40,$B$28,$B$64,$B$76,$B$88,$B$100,$B$112)</f>
@@ -7274,7 +7274,7 @@
         <v>43132</v>
       </c>
       <c r="B137" s="15">
-        <v>147.5136</v>
+        <v>149.57079999999999</v>
       </c>
       <c r="C137" s="15">
         <f>MIN($B$53,$B$41,$B$29,$B$65,$B$77,$B$89,$B$101,$B$113)</f>
@@ -7294,7 +7294,7 @@
         <v>43160</v>
       </c>
       <c r="B138" s="15">
-        <v>154.126</v>
+        <v>156.16820000000001</v>
       </c>
       <c r="C138" s="15">
         <f>MIN($B$54,$B$42,$B$30,$B$66,$B$78,$B$90,$B$102,$B$114)</f>
@@ -7314,7 +7314,7 @@
         <v>43191</v>
       </c>
       <c r="B139" s="15">
-        <v>154.76840000000001</v>
+        <v>156.9675</v>
       </c>
       <c r="C139" s="15">
         <f>MIN($B$55,$B$43,$B$31,$B$67,$B$79,$B$91,$B$103,$B$115)</f>
@@ -7334,7 +7334,7 @@
         <v>43221</v>
       </c>
       <c r="B140" s="15">
-        <v>156.10579999999999</v>
+        <v>158.2662</v>
       </c>
       <c r="C140" s="15">
         <f>MIN($B$56,$B$44,$B$32,$B$68,$B$80,$B$92,$B$104,$B$116)</f>
@@ -7354,7 +7354,7 @@
         <v>43252</v>
       </c>
       <c r="B141" s="15">
-        <v>150.88310000000001</v>
+        <v>152.9802</v>
       </c>
       <c r="C141" s="15">
         <f>MIN($B$57,$B$45,$B$33,$B$69,$B$81,$B$93,$B$105,$B$117)</f>
@@ -7374,7 +7374,7 @@
         <v>43282</v>
       </c>
       <c r="B142" s="15">
-        <v>142.803</v>
+        <v>144.84289999999999</v>
       </c>
       <c r="C142" s="15">
         <f>MIN($B$58,$B$46,$B$34,$B$70,$B$82,$B$94,$B$106,$B$118)</f>
@@ -7394,7 +7394,7 @@
         <v>43313</v>
       </c>
       <c r="B143" s="15">
-        <v>137.8039</v>
+        <v>139.81909999999999</v>
       </c>
       <c r="C143" s="15">
         <f>MIN($B$59,$B$47,$B$35,$B$71,$B$83,$B$95,$B$107,$B$119)</f>
@@ -7414,7 +7414,7 @@
         <v>43344</v>
       </c>
       <c r="B144" s="15">
-        <v>135.3897</v>
+        <v>137.38900000000001</v>
       </c>
       <c r="C144" s="15">
         <f>MIN($B$60,$B$48,$B$36,$B$72,$B$84,$B$96,$B$108,$B$120)</f>
@@ -7434,7 +7434,7 @@
         <v>43374</v>
       </c>
       <c r="B145" s="15">
-        <v>139.726</v>
+        <v>141.71530000000001</v>
       </c>
       <c r="C145" s="15">
         <f>MIN($B$61,$B$49,$B$37,$B$73,$B$85,$B$97,$B$109,$B$121)</f>
@@ -7454,7 +7454,7 @@
         <v>43405</v>
       </c>
       <c r="B146" s="15">
-        <v>144.5147</v>
+        <v>146.49299999999999</v>
       </c>
       <c r="C146" s="15">
         <f>MIN($B$62,$B$50,$B$38,$B$74,$B$86,$B$98,$B$110,$B$122)</f>
@@ -7474,7 +7474,7 @@
         <v>43435</v>
       </c>
       <c r="B147" s="18">
-        <v>146.8314</v>
+        <v>148.7978</v>
       </c>
       <c r="C147" s="18">
         <f>MIN($B$63,$B$51,$B$39,$B$75,$B$87,$B$99,$B$111,$B$123)</f>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="21">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B152" s="2">
         <v>0</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="21">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B153" s="2">
         <v>1</v>
